--- a/Survey.xlsx
+++ b/Survey.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shank\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shank\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D71E3C-652E-445A-ADA5-0DFAC6EF40C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FBAB32-6DAC-4B80-B214-DA349B2FAF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{7DF6C8CB-3071-4917-91D3-F6CEEF530746}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{7DF6C8CB-3071-4917-91D3-F6CEEF530746}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Master" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="72">
   <si>
     <t>DEPT_ID</t>
   </si>
@@ -658,11 +659,1612 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2583F2E-E81C-4656-A638-E279F8B518A9}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A21:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="78.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>2</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="5">
+        <v>7</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="6">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>3</v>
+      </c>
+      <c r="J3" s="6">
+        <v>3</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="6">
+        <v>6</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="6">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="5">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="5">
+        <v>7</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6">
+        <v>5</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="6">
+        <v>6</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="5">
+        <v>9</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="5">
+        <v>7</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1</v>
+      </c>
+      <c r="P6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6">
+        <v>3</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="6">
+        <v>7</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="6">
+        <v>1</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="5">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="5">
+        <v>7</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="5">
+        <v>2</v>
+      </c>
+      <c r="O8" s="5">
+        <v>1</v>
+      </c>
+      <c r="P8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="6">
+        <v>9</v>
+      </c>
+      <c r="F9" s="6">
+        <v>4</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="6">
+        <v>5</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="5">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>2</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="5">
+        <v>8</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="6">
+        <v>9</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="6">
+        <v>6</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="5">
+        <v>8</v>
+      </c>
+      <c r="F12" s="5">
+        <v>3</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="5">
+        <v>6</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="6">
+        <v>8</v>
+      </c>
+      <c r="F13" s="6">
+        <v>3</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="6">
+        <v>7</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="5">
+        <v>8</v>
+      </c>
+      <c r="F14" s="5">
+        <v>5</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="5">
+        <v>5</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>1</v>
+      </c>
+      <c r="P14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="6">
+        <v>9</v>
+      </c>
+      <c r="F15" s="6">
+        <v>3</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>3</v>
+      </c>
+      <c r="J15" s="6">
+        <v>2</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="6">
+        <v>7</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="6">
+        <v>1</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="5">
+        <v>9</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>3</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="5">
+        <v>6</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <v>1</v>
+      </c>
+      <c r="P16" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="6">
+        <v>9</v>
+      </c>
+      <c r="F17" s="6">
+        <v>4</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>2</v>
+      </c>
+      <c r="J17" s="6">
+        <v>2</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="6">
+        <v>5</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="6">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="5">
+        <v>9</v>
+      </c>
+      <c r="F18" s="5">
+        <v>4</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>2</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="5">
+        <v>5</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="5">
+        <v>3</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="6">
+        <v>9</v>
+      </c>
+      <c r="F19" s="6">
+        <v>4</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>2</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="6">
+        <v>6</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" s="6">
+        <v>1</v>
+      </c>
+      <c r="O19" s="6">
+        <v>1</v>
+      </c>
+      <c r="P19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="5">
+        <v>9</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="5">
+        <v>7</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="5">
+        <v>1</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="6">
+        <v>9</v>
+      </c>
+      <c r="F21" s="6">
+        <v>3</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="6">
+        <v>6</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="6">
+        <v>1</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0</v>
+      </c>
+      <c r="P21" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="5">
+        <v>8</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="5">
+        <v>6</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" s="5">
+        <v>1</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="6">
+        <v>9</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <v>1</v>
+      </c>
+      <c r="J23" s="6">
+        <v>1</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="6">
+        <v>6</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" s="6">
+        <v>1</v>
+      </c>
+      <c r="O23" s="6">
+        <v>1</v>
+      </c>
+      <c r="P23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="5">
+        <v>9</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5">
+        <v>3</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="5">
+        <v>6</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N24" s="5">
+        <v>1</v>
+      </c>
+      <c r="O24" s="5">
+        <v>3</v>
+      </c>
+      <c r="P24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="6">
+        <v>7</v>
+      </c>
+      <c r="F25" s="6">
+        <v>3</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>2</v>
+      </c>
+      <c r="J25" s="6">
+        <v>1</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="6">
+        <v>7</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" s="6">
+        <v>0</v>
+      </c>
+      <c r="O25" s="6">
+        <v>0</v>
+      </c>
+      <c r="P25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="5">
+        <v>7</v>
+      </c>
+      <c r="F26" s="5">
+        <v>3</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L26" s="5">
+        <v>5</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="5">
+        <v>1</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0</v>
+      </c>
+      <c r="P26" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="6">
+        <v>8</v>
+      </c>
+      <c r="F27" s="6">
+        <v>3</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
+        <v>1</v>
+      </c>
+      <c r="J27" s="6">
+        <v>1</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="6">
+        <v>7</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" s="6">
+        <v>1</v>
+      </c>
+      <c r="O27" s="6">
+        <v>0</v>
+      </c>
+      <c r="P27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="5">
+        <v>9</v>
+      </c>
+      <c r="F28" s="5">
+        <v>2</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="5">
+        <v>2</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" s="5">
+        <v>8</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N28" s="5">
+        <v>1</v>
+      </c>
+      <c r="O28" s="5">
+        <v>2</v>
+      </c>
+      <c r="P28" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="6">
+        <v>8</v>
+      </c>
+      <c r="F29" s="6">
+        <v>4</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="6">
+        <v>3</v>
+      </c>
+      <c r="I29" s="6">
+        <v>1</v>
+      </c>
+      <c r="J29" s="6">
+        <v>1</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="6">
+        <v>7</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="6">
+        <v>0</v>
+      </c>
+      <c r="O29" s="6">
+        <v>1</v>
+      </c>
+      <c r="P29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="5">
+        <v>10</v>
+      </c>
+      <c r="F30" s="5">
+        <v>4</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>3</v>
+      </c>
+      <c r="J30" s="5">
+        <v>2</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" s="5">
+        <v>7</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0</v>
+      </c>
+      <c r="O30" s="5">
+        <v>1</v>
+      </c>
+      <c r="P30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="6">
+        <v>8</v>
+      </c>
+      <c r="F31" s="6">
+        <v>2</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6">
+        <v>1</v>
+      </c>
+      <c r="J31" s="6">
+        <v>2</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" s="6">
+        <v>6</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N31" s="6">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6">
+        <v>1</v>
+      </c>
+      <c r="P31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BBF7B5-2264-43F7-B89C-C5EA8F440C57}">
+  <dimension ref="A1:P31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="78.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
